--- a/data/trans_camb/P16-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>0.7572377968611321</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.7737312216836378</v>
+        <v>-0.7737312216836489</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.866270527322612</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.829094238958911</v>
+        <v>-3.279692302607136</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.522430057783477</v>
+        <v>-3.813762403012188</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.951640249345766</v>
+        <v>-2.285763070479957</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.816643182631086</v>
+        <v>2.677179306902258</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.315839294408878</v>
+        <v>-3.303410611713574</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.596918632641894</v>
+        <v>-6.27687856856149</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.7420115937759235</v>
+        <v>-0.5269008306441818</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.76780907401581</v>
+        <v>-3.868284749545083</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.492531544476285</v>
+        <v>-3.374021156107715</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.619473757396139</v>
+        <v>7.432040039032866</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.533216595961087</v>
+        <v>6.586389793813558</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.46353589497385</v>
+        <v>11.04860995478508</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.12265346147981</v>
+        <v>10.79364774674618</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.212290821504113</v>
+        <v>5.049218323055879</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.869541211654019</v>
+        <v>3.619923256824402</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.265018998623118</v>
+        <v>6.130225429408122</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.732669330698287</v>
+        <v>2.861479727367005</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.725844035610403</v>
+        <v>4.562033466242842</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.01133265135755256</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.01157948826133661</v>
+        <v>-0.01157948826133678</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.0478589067909078</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.05569579538157194</v>
+        <v>-0.06231553004036493</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.06800370599056248</v>
+        <v>-0.0739086266311005</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.03837308150273986</v>
+        <v>-0.04364402699028791</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.03984880818896344</v>
+        <v>0.03881948323364058</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.04739755132709784</v>
+        <v>-0.0483103346551373</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.08245213837408313</v>
+        <v>-0.09199588941752665</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01200375037517607</v>
+        <v>-0.008628052802580327</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.06129044287331139</v>
+        <v>-0.06326018694907853</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.05640459553284078</v>
+        <v>-0.0545011458055879</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1687909470316847</v>
+        <v>0.1619390486785147</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1441326995949433</v>
+        <v>0.1446871105615992</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2410535492491035</v>
+        <v>0.2423751245055197</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1726682980221889</v>
+        <v>0.1692070570614317</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08215295866986123</v>
+        <v>0.0780350059187483</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05970673757326565</v>
+        <v>0.05592951445646759</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1089100842190932</v>
+        <v>0.1055464385181308</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.04732032926171089</v>
+        <v>0.05024030666517532</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.08153318374881849</v>
+        <v>0.07820606046901195</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>7.234110860210807</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>5.612240676685043</v>
+        <v>5.612240676685055</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>12.60386992634919</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.532346354302492</v>
+        <v>5.230999683770237</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.543298606281726</v>
+        <v>6.428073546934178</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.853647813240483</v>
+        <v>6.720046629424735</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10.09536879456767</v>
+        <v>10.0495588623602</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.696693405562853</v>
+        <v>2.858443765609499</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.593999332005456</v>
+        <v>1.426880327574021</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>9.673999209236829</v>
+        <v>9.400321587076713</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>6.261138731454559</v>
+        <v>6.290227074067105</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.752309068001092</v>
+        <v>5.867807767097423</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.58589639637515</v>
+        <v>13.86783715837712</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.67667850233623</v>
+        <v>15.61131588504489</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.42873508419829</v>
+        <v>15.84427885606657</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.506845778736</v>
+        <v>18.38401762566663</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>11.71001921488356</v>
+        <v>11.9614831890136</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.445498583132451</v>
+        <v>9.669452868731808</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>15.80135243309637</v>
+        <v>15.58592612635628</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>12.660395908877</v>
+        <v>12.67726438116119</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>12.12298962853692</v>
+        <v>12.07775399994848</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.1269817177108376</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09851272327769291</v>
+        <v>0.0985127232776931</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.2646042522262687</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1149450265353683</v>
+        <v>0.1267538163551473</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1598908558518043</v>
+        <v>0.1569052525303507</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1463522271768669</v>
+        <v>0.1634586014125286</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1706872924369072</v>
+        <v>0.1712206867571774</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.04585510842060773</v>
+        <v>0.05021541579853025</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02686542372792596</v>
+        <v>0.02502078812669391</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1967743140010836</v>
+        <v>0.1909032781403931</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1273097769578028</v>
+        <v>0.1274852761789005</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1187411099065062</v>
+        <v>0.1201167653477437</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.371291867562503</v>
+        <v>0.3772700345958274</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.426497268838207</v>
+        <v>0.4306563633997597</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.4219682052873499</v>
+        <v>0.4333614338717341</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3428604786075984</v>
+        <v>0.3410160755612061</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2134434735851989</v>
+        <v>0.2177231793335013</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1710795608647705</v>
+        <v>0.1758219410024065</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3466647890180904</v>
+        <v>0.3399822897949201</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2732394089510445</v>
+        <v>0.27575316848012</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2647369408408659</v>
+        <v>0.2618338534504711</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>12.49873885857906</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>9.247486315169906</v>
+        <v>9.247486315169894</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>15.04659488213341</v>
@@ -1092,7 +1092,7 @@
         <v>11.50960999006185</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>11.69015593784186</v>
+        <v>11.69015593784188</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>10.08843052384211</v>
+        <v>10.02215076101397</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.397787669805217</v>
+        <v>5.440171592943782</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.850809832507071</v>
+        <v>8.91721224490407</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9.72908086798002</v>
+        <v>10.24333944814416</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>7.466332666217222</v>
+        <v>7.93135580827429</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.724890060908608</v>
+        <v>4.814397941745067</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>11.9762688417914</v>
+        <v>11.83430173880224</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>8.08397580245026</v>
+        <v>8.209265894210402</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>8.396712552637865</v>
+        <v>8.536654552536675</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>19.20227479211336</v>
+        <v>18.47642881296164</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.61957416869543</v>
+        <v>14.75336090505138</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.69155317888988</v>
+        <v>17.76597053584993</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18.8275490555102</v>
+        <v>18.82426362644465</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>16.77041758825048</v>
+        <v>17.02743295552514</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>13.46116303788346</v>
+        <v>13.31969220686337</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>18.37272673836504</v>
+        <v>18.23893429345819</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>14.70824687473322</v>
+        <v>14.91281863121824</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>14.34713360263802</v>
+        <v>14.93966765167544</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.2354897789653964</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1742326592294659</v>
+        <v>0.1742326592294657</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.3325432155573089</v>
@@ -1197,7 +1197,7 @@
         <v>0.254372683380375</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.2583629104384517</v>
+        <v>0.2583629104384522</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2550048045591714</v>
+        <v>0.2504773452990227</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1374409625818968</v>
+        <v>0.1365277474263188</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2196580047837452</v>
+        <v>0.2215002747842688</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.177212299814044</v>
+        <v>0.1849888224901263</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1360571608080008</v>
+        <v>0.1432667428355696</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.085671393245124</v>
+        <v>0.08716442575551765</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.255428814753501</v>
+        <v>0.2516371912250968</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1717746800111812</v>
+        <v>0.1747753747548005</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1775688670367739</v>
+        <v>0.1844442478000374</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.535120973391216</v>
+        <v>0.5133774948976383</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4118855243763706</v>
+        <v>0.4057397644006033</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4946061464091231</v>
+        <v>0.4808671539539852</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3740313490506408</v>
+        <v>0.3735305771451125</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3365223347867312</v>
+        <v>0.3335466004198597</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2689226822642756</v>
+        <v>0.2640762135087537</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.418775432659264</v>
+        <v>0.4196105780954211</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3366435478549032</v>
+        <v>0.3394929406532829</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3289461801013859</v>
+        <v>0.3437024308111224</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>12.92649893519167</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17.40088922623286</v>
+        <v>17.40088922623287</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>10.15029271664578</v>
@@ -1297,7 +1297,7 @@
         <v>3.756666015732413</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>9.566456929667222</v>
+        <v>9.566456929667201</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>11.77100847964755</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.418465161974666</v>
+        <v>4.862941133701183</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.711681432198237</v>
+        <v>6.377006815433392</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11.30454714361625</v>
+        <v>11.3966064233938</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.530332558458662</v>
+        <v>3.00389787385634</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.091980561288105</v>
+        <v>-3.634479383514277</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.888928842971458</v>
+        <v>4.006303957476651</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>6.7640917471326</v>
+        <v>7.434662440201261</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>4.343977921173676</v>
+        <v>4.830004606261305</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>10.25605436696692</v>
+        <v>10.37651663581353</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>19.04639419150374</v>
+        <v>18.45318789071533</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.62151757095893</v>
+        <v>19.60047539251268</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23.04616940487674</v>
+        <v>23.45372233642551</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17.0404441547827</v>
+        <v>16.82648392743685</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.53145129787341</v>
+        <v>10.82960013558696</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>15.56278322891882</v>
+        <v>15.65060434809756</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>16.43982073601663</v>
+        <v>16.72425520013117</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>13.79650890484744</v>
+        <v>14.2498312827133</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>18.80988335936567</v>
+        <v>18.58239493673198</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.3427279488483373</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.4613601178899173</v>
+        <v>0.4613601178899175</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1880745077062668</v>
@@ -1402,7 +1402,7 @@
         <v>0.06960716614281187</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1772566297117513</v>
+        <v>0.1772566297117509</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2630397485408726</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1302006829589841</v>
+        <v>0.116953423535437</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.164516871000866</v>
+        <v>0.1567741827329414</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2787751105645628</v>
+        <v>0.2726030223419713</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.06080333862693624</v>
+        <v>0.05113538087731525</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.05216067236926896</v>
+        <v>-0.06218949423685608</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06689807856308559</v>
+        <v>0.0696961031720867</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.141112617327692</v>
+        <v>0.1552982764281459</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.08940182143946139</v>
+        <v>0.09655865420944712</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2152054923362436</v>
+        <v>0.2172356556560575</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.545762490540964</v>
+        <v>0.5342341434352641</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5551718918744847</v>
+        <v>0.5823669939912302</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6853652198018011</v>
+        <v>0.678969157761418</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3439779716420238</v>
+        <v>0.3434299203632938</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2167508674998773</v>
+        <v>0.2231575311275063</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3165136615145293</v>
+        <v>0.3176607746261783</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3890624687432387</v>
+        <v>0.3940211957494139</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3273610163798038</v>
+        <v>0.3384765972800702</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4573513308482002</v>
+        <v>0.4421557881716613</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>9.46933043952019</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>12.11389408669077</v>
+        <v>12.11389408669078</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>12.00731207043142</v>
@@ -1520,7 +1520,7 @@
         <v>8.079820933861987</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>8.650597562251299</v>
+        <v>8.650597562251312</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>7.6336442306226</v>
+        <v>7.61964927046489</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.989362348829594</v>
+        <v>7.037429509052094</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9.490180257021676</v>
+        <v>9.618743462324087</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9.402704661457266</v>
+        <v>9.542269053765132</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>4.215924482044127</v>
+        <v>4.252698140831728</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.698240762012366</v>
+        <v>2.752222836326247</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>9.561880039592301</v>
+        <v>9.380288570371103</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>6.306486732072507</v>
+        <v>6.247490527910638</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>6.932497254796119</v>
+        <v>7.013518581468774</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.45981294993922</v>
+        <v>12.64786899156416</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>11.73413021152706</v>
+        <v>12.05937065366116</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14.47774149818957</v>
+        <v>14.654461814179</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14.22091398024911</v>
+        <v>14.32843986758053</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.961189471054622</v>
+        <v>9.025768472512024</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.447030768097193</v>
+        <v>7.47340617323842</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>12.96006474027905</v>
+        <v>12.99574253039374</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.7481186138067</v>
+        <v>9.828090482248262</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>10.40700721049234</v>
+        <v>10.32846382207625</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.2355325920051417</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.3013113642762063</v>
+        <v>0.3013113642762066</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2061915948062956</v>
@@ -1625,7 +1625,7 @@
         <v>0.1637708627251965</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.1753400028855858</v>
+        <v>0.175340002885586</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1844614966747956</v>
+        <v>0.1829497973701962</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1664401161183815</v>
+        <v>0.1674730608661316</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2295060270233587</v>
+        <v>0.2307000067190816</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.158281707247078</v>
+        <v>0.1601244553770579</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.07094692132611985</v>
+        <v>0.0702413307150325</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04541404206190116</v>
+        <v>0.04622084684739278</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.189228862296697</v>
+        <v>0.1869581689848685</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1261487955843733</v>
+        <v>0.1265593461054912</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.138096633181326</v>
+        <v>0.1399958344006529</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3188913828512374</v>
+        <v>0.3253743621749638</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.301217981576439</v>
+        <v>0.3092844590625694</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3737695078674722</v>
+        <v>0.3743406719412078</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2489122990864557</v>
+        <v>0.2515769565866649</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1575781774245491</v>
+        <v>0.1588577994690134</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.131111232615125</v>
+        <v>0.1313446964166399</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.267047611292564</v>
+        <v>0.2685872095538673</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2018995195696988</v>
+        <v>0.2036180815700868</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.214537435860249</v>
+        <v>0.2136259074482619</v>
       </c>
     </row>
     <row r="34">
